--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
@@ -411,7 +411,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b83d7c8-0c36-43bc-bd2e-b4f957032858}</x14:id>
+          <x14:id>{a152be9c-1707-42ed-91dd-e655838d7073}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -425,7 +425,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b85a964b-61fa-4075-b2a4-57373086d521}</x14:id>
+          <x14:id>{fc20990d-2005-49cc-95f3-1a00883b9dc5}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -439,7 +439,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1b83d7c8-0c36-43bc-bd2e-b4f957032858}">
+          <x14:cfRule type="dataBar" id="{a152be9c-1707-42ed-91dd-e655838d7073}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -454,7 +454,7 @@
           <xm:sqref>A1:A4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b85a964b-61fa-4075-b2a4-57373086d521}">
+          <x14:cfRule type="dataBar" id="{fc20990d-2005-49cc-95f3-1a00883b9dc5}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-100</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
@@ -411,7 +411,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d0ec2b3e-af87-421d-ac0f-3b40c69de07a}</x14:id>
+          <x14:id>{50c0d58d-9067-4dc7-a30b-391c9ea985ec}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -425,7 +425,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6fd8ec9-e895-4f78-9ac3-6053531656a8}</x14:id>
+          <x14:id>{fae2c537-640d-4c16-813c-135a58df836f}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -439,7 +439,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d0ec2b3e-af87-421d-ac0f-3b40c69de07a}">
+          <x14:cfRule type="dataBar" id="{50c0d58d-9067-4dc7-a30b-391c9ea985ec}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -454,7 +454,7 @@
           <xm:sqref>A1:A4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b6fd8ec9-e895-4f78-9ac3-6053531656a8}">
+          <x14:cfRule type="dataBar" id="{fae2c537-640d-4c16-813c-135a58df836f}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-100</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
@@ -370,34 +370,34 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="0" t="n">
+      <x:c r="A1" s="0">
         <x:v>-1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="n">
+      <x:c r="C1" s="0">
         <x:v>-20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>-60</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>30</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -411,7 +411,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a152be9c-1707-42ed-91dd-e655838d7073}</x14:id>
+          <x14:id>{3542d0b3-14de-469c-87da-b42ceaed251d}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -425,7 +425,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fc20990d-2005-49cc-95f3-1a00883b9dc5}</x14:id>
+          <x14:id>{d6876a5b-9693-4ad2-be0f-3c59dd72bb69}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -439,7 +439,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a152be9c-1707-42ed-91dd-e655838d7073}">
+          <x14:cfRule type="dataBar" id="{3542d0b3-14de-469c-87da-b42ceaed251d}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -454,7 +454,7 @@
           <xm:sqref>A1:A4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fc20990d-2005-49cc-95f3-1a00883b9dc5}">
+          <x14:cfRule type="dataBar" id="{d6876a5b-9693-4ad2-be0f-3c59dd72bb69}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-100</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -411,7 +411,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3542d0b3-14de-469c-87da-b42ceaed251d}</x14:id>
+          <x14:id>{19ecfd0f-eb29-498c-b813-8e6a56d12acf}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -425,7 +425,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d6876a5b-9693-4ad2-be0f-3c59dd72bb69}</x14:id>
+          <x14:id>{e92a5b92-8f76-4f5a-b52f-d3dbc399128d}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -439,7 +439,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3542d0b3-14de-469c-87da-b42ceaed251d}">
+          <x14:cfRule type="dataBar" id="{19ecfd0f-eb29-498c-b813-8e6a56d12acf}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -454,7 +454,7 @@
           <xm:sqref>A1:A4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d6876a5b-9693-4ad2-be0f-3c59dd72bb69}">
+          <x14:cfRule type="dataBar" id="{e92a5b92-8f76-4f5a-b52f-d3dbc399128d}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-100</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBarNegative.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -411,7 +411,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19ecfd0f-eb29-498c-b813-8e6a56d12acf}</x14:id>
+          <x14:id>{e40ff61a-5a84-44d4-be7e-3853bfd4dca8}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -425,7 +425,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e92a5b92-8f76-4f5a-b52f-d3dbc399128d}</x14:id>
+          <x14:id>{358dffa1-56c8-4c78-92b0-c2d4055cbf98}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -439,7 +439,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19ecfd0f-eb29-498c-b813-8e6a56d12acf}">
+          <x14:cfRule type="dataBar" id="{e40ff61a-5a84-44d4-be7e-3853bfd4dca8}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -454,7 +454,7 @@
           <xm:sqref>A1:A4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e92a5b92-8f76-4f5a-b52f-d3dbc399128d}">
+          <x14:cfRule type="dataBar" id="{358dffa1-56c8-4c78-92b0-c2d4055cbf98}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-100</xm:f>
